--- a/final_measurements/inter_cluster_and_wcss/wcss_scores.xlsx
+++ b/final_measurements/inter_cluster_and_wcss/wcss_scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\TL1PEPF0000039D\EXCELCNV\fdb3153a-eb91-4834-8024-24e0af0d4cd5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AACC2FF8-12CC-4BB6-AB4F-3B583DE75A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AACC2FF8-12CC-4BB6-AB4F-3B583DE75A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28254065-ABFA-4EA1-9CB7-7E64D8D875AA}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{C0E0C777-498F-4B7B-BAF8-DC3CD4827B69}"/>
   </bookViews>
@@ -553,48 +553,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,6 +911,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
